--- a/ConvertedEqual/South Dakota_Converted.xlsx
+++ b/ConvertedEqual/South Dakota_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="269">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -786,6 +786,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T221"/>
+  <dimension ref="A1:T233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1353,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1362,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="T7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -2359,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2421,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2483,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2545,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2607,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2669,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2731,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2793,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2855,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2917,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2979,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3041,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3103,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3165,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3227,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3289,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3351,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3413,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3475,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3537,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3599,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3661,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3723,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3785,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3847,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3909,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3971,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4033,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4095,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4157,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4219,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4281,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4343,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4405,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4467,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4529,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4591,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="T60">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4653,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4715,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="T62">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4777,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -4839,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="T64">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -4901,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="T65">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -4963,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="T66">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -5025,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="T67">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -5087,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="T68">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -5149,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="T69">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5211,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="T70">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5273,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="T71">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5335,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="T72">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5397,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5459,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5521,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="T75">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5583,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="T76">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5645,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="T77">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5707,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="T78">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5769,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="T79">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -5831,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="T80">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -5893,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="T81">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -5955,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="T82">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -6017,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="T83">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -6079,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="T84">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -6141,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="T85">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -6203,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="T86">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -6265,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="T87">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6327,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="T88">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6389,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="T89">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6451,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="T90">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6513,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="T91">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6575,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="T92">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6637,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="T93">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6699,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="T94">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6761,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="T95">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6823,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="T96">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -6885,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -6947,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="T98">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -7009,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="T99">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -7071,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="T100">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -7133,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="T101">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7195,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="T102">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7257,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="T103">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -7319,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="T104">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -7381,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="T105">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7443,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="T106">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7505,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="T107">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -7567,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="T108">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7629,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="T109">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7691,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="T110">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7753,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="T111">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -7815,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="T112">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -7877,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="T113">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -7939,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="T114">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -8001,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="T115">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -8063,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="T116">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -8125,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="T117">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -8187,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="T118">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -8249,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="T119">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -8311,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="T120">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -8373,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="T121">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -8435,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="T122">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -8497,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="T123">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8559,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="T124">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8621,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="T125">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8683,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="T126">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8745,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="T127">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -8807,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="T128">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -8869,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="T129">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -8931,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="T130">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -8993,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="T131">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -9055,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="T132">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -9117,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="T133">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -9179,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="T134">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -9241,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="T135">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -9303,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="T136">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -9365,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="T137">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -9427,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="T138">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -9489,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="T139">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -9551,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="T140">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -9613,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="T141">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -9675,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="T142">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -9737,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="T143">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -9799,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="T144">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -9861,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="T145">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -9923,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="T146">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -9985,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="T147">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -10047,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="T148">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -10109,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="T149">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -10171,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="T150">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -10233,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="T151">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -10295,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="T152">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -10357,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="T153">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -10419,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="T154">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -10481,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="T155">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -10543,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="T156">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -10605,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="T157">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="158" spans="1:20">
@@ -10667,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="T158">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -10729,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="T159">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -10791,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="T160">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -10853,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="T161">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="162" spans="1:20">
@@ -10915,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="T162">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -10977,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="T163">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -11039,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="T164">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -11101,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="T165">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -11163,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="T166">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="167" spans="1:20">
@@ -11225,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="T167">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:20">
@@ -11287,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="T168">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="169" spans="1:20">
@@ -11349,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="T169">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:20">
@@ -11411,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="T170">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -11473,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="T171">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -11535,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="T172">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -11597,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="T173">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="174" spans="1:20">
@@ -11659,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="T174">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:20">
@@ -11721,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="T175">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -11783,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="T176">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -11845,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="T177">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -11907,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="T178">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -11969,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="T179">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -12031,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="T180">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:20">
@@ -12093,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="T181">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -12155,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="T182">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="183" spans="1:20">
@@ -12217,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="T183">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:20">
@@ -12279,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="T184">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -12341,7 +12377,7 @@
         <v>0</v>
       </c>
       <c r="T185">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="186" spans="1:20">
@@ -12403,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="T186">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:20">
@@ -12465,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="T187">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:20">
@@ -12527,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="T188">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:20">
@@ -12589,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="T189">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:20">
@@ -12651,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="T190">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:20">
@@ -12713,7 +12749,7 @@
         <v>0</v>
       </c>
       <c r="T191">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:20">
@@ -12775,7 +12811,7 @@
         <v>0</v>
       </c>
       <c r="T192">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:20">
@@ -12837,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="T193">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:20">
@@ -12899,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="T194">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -12961,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="T195">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:20">
@@ -13023,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="T196">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:20">
@@ -13085,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="T197">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:20">
@@ -13147,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="T198">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -13209,7 +13245,7 @@
         <v>0</v>
       </c>
       <c r="T199">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:20">
@@ -13271,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="T200">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:20">
@@ -13333,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="T201">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -13395,7 +13431,7 @@
         <v>0</v>
       </c>
       <c r="T202">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:20">
@@ -13457,7 +13493,7 @@
         <v>0</v>
       </c>
       <c r="T203">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:20">
@@ -13519,7 +13555,7 @@
         <v>0</v>
       </c>
       <c r="T204">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:20">
@@ -13581,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="T205">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -13643,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="T206">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -13705,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="T207">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:20">
@@ -13767,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="T208">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:20">
@@ -13829,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="T209">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:20">
@@ -13891,7 +13927,7 @@
         <v>0</v>
       </c>
       <c r="T210">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="211" spans="1:20">
@@ -13953,7 +13989,7 @@
         <v>0</v>
       </c>
       <c r="T211">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:20">
@@ -14015,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="T212">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:20">
@@ -14077,7 +14113,7 @@
         <v>0</v>
       </c>
       <c r="T213">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -14139,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="T214">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:20">
@@ -14201,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="T215">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="216" spans="1:20">
@@ -14263,7 +14299,7 @@
         <v>0</v>
       </c>
       <c r="T216">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:20">
@@ -14325,7 +14361,7 @@
         <v>0</v>
       </c>
       <c r="T217">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:20">
@@ -14387,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="T218">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="219" spans="1:20">
@@ -14449,7 +14485,7 @@
         <v>0</v>
       </c>
       <c r="T219">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -14511,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="T220">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="221" spans="1:20">
@@ -14573,7 +14609,751 @@
         <v>0</v>
       </c>
       <c r="T221">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20">
+      <c r="A222" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20">
+      <c r="A223" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20">
+      <c r="A224" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20">
+      <c r="A225" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20">
+      <c r="A226" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20">
+      <c r="A227" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20">
+      <c r="A228" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20">
+      <c r="A229" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20">
+      <c r="A230" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20">
+      <c r="A231" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20">
+      <c r="A232" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20">
+      <c r="A233" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0.08333333333333333</v>
       </c>
     </row>
   </sheetData>
